--- a/files/template/Export_template.xlsx
+++ b/files/template/Export_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markyu/Desktop/Myplayground/projectshroud/files/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5516C2C-0BC6-BD4C-8CB3-1B84BBAFB88E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015505AF-A302-1040-9744-00796E17AC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="24940" windowHeight="14640" activeTab="1" xr2:uid="{3106C312-B26A-F042-81DA-B52538C3F6D6}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="24940" windowHeight="14640" xr2:uid="{3106C312-B26A-F042-81DA-B52538C3F6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="已注册参会者" sheetId="4" r:id="rId1"/>
@@ -151,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +163,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16792E1C-711C-E843-BEE8-CF5CA6371BFD}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -507,67 +510,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:L2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -576,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B183FFDA-EDF8-E34C-990B-B041E0541A21}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -600,72 +611,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/template/Export_template.xlsx
+++ b/files/template/Export_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markyu/Desktop/Myplayground/projectshroud/files/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015505AF-A302-1040-9744-00796E17AC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFDC888-8766-0F47-8035-CB67DDE02BA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="24940" windowHeight="14640" xr2:uid="{3106C312-B26A-F042-81DA-B52538C3F6D6}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="24940" windowHeight="14640" activeTab="1" xr2:uid="{3106C312-B26A-F042-81DA-B52538C3F6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="已注册参会者" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>人员信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>申请信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16792E1C-711C-E843-BEE8-CF5CA6371BFD}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -507,16 +511,17 @@
     <col min="10" max="10" width="16.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="30.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -535,8 +540,9 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -571,14 +577,17 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:L2"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,10 +596,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B183FFDA-EDF8-E34C-990B-B041E0541A21}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,9 +617,10 @@
     <col min="11" max="11" width="16.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="21.6640625" style="3" customWidth="1"/>
     <col min="13" max="13" width="30.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -618,7 +628,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -638,8 +648,9 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,15 +688,18 @@
         <v>13</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:M2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
